--- a/biology/Zoologie/Bourgueticrinidae/Bourgueticrinidae.xlsx
+++ b/biology/Zoologie/Bourgueticrinidae/Bourgueticrinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bourgueticrinidae sont une famille de comatules.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu'appartenant au groupe des comatules, la plupart des espèces de cette famille conservent une tige à l'âge adulte et sont donc sédentaires. On les trouve principalement dans des eaux froides et profondes. 
-En Atlantique Nord-Est, cette famille est indicatrice des écosystèmes marins vulnérables au niveau desquels la pêche de fond est interdite au delà de 400 m de profondeur[1]. 
+En Atlantique Nord-Est, cette famille est indicatrice des écosystèmes marins vulnérables au niveau desquels la pêche de fond est interdite au delà de 400 m de profondeur. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (24 janvier 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (24 janvier 2014) :
 genre Conocrinus d'Orbigny, 1850 -- 6 espèces
 genre Democrinus Perrier, 1883 -- 10 espèces
 </t>
